--- a/Code/Results/Cases/Case_0_232/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_232/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.142822768124077</v>
+        <v>0.04910245743407415</v>
       </c>
       <c r="D2">
-        <v>0.1349798897547885</v>
+        <v>0.2113262746227349</v>
       </c>
       <c r="E2">
-        <v>0.08316930712754811</v>
+        <v>0.1595476154847084</v>
       </c>
       <c r="F2">
-        <v>0.6265604678610046</v>
+        <v>1.136274430731824</v>
       </c>
       <c r="G2">
-        <v>0.377645386283973</v>
+        <v>0.5817196776665838</v>
       </c>
       <c r="H2">
-        <v>0.2951356344967735</v>
+        <v>0.706141273095227</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07256946821954102</v>
+        <v>0.1622308361142473</v>
       </c>
       <c r="K2">
-        <v>2.517954892185969</v>
+        <v>0.8649220999769796</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6127768187322289</v>
+        <v>0.3282109482808124</v>
       </c>
       <c r="N2">
-        <v>0.8440367554623975</v>
+        <v>1.239552088878582</v>
       </c>
       <c r="O2">
-        <v>1.367973655373703</v>
+        <v>2.55412709350486</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1237273765997742</v>
+        <v>0.04361850648034249</v>
       </c>
       <c r="D3">
-        <v>0.1237726988699421</v>
+        <v>0.209281435819598</v>
       </c>
       <c r="E3">
-        <v>0.07853972920657881</v>
+        <v>0.1593596804087376</v>
       </c>
       <c r="F3">
-        <v>0.5935839054152439</v>
+        <v>1.137350513017296</v>
       </c>
       <c r="G3">
-        <v>0.3537023580302332</v>
+        <v>0.5815280987123401</v>
       </c>
       <c r="H3">
-        <v>0.2899242719015973</v>
+        <v>0.7101403478310289</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07061538133989842</v>
+        <v>0.1629972472390051</v>
       </c>
       <c r="K3">
-        <v>2.192942022535021</v>
+        <v>0.7644190754145939</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5341344590463351</v>
+        <v>0.3057732320252811</v>
       </c>
       <c r="N3">
-        <v>0.8474988914057136</v>
+        <v>1.243712767974998</v>
       </c>
       <c r="O3">
-        <v>1.305920324338871</v>
+        <v>2.561802122388627</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1120871006388313</v>
+        <v>0.04026453365024452</v>
       </c>
       <c r="D4">
-        <v>0.1169961502760657</v>
+        <v>0.2081019991133246</v>
       </c>
       <c r="E4">
-        <v>0.07580689435996746</v>
+        <v>0.1593143227636631</v>
       </c>
       <c r="F4">
-        <v>0.5745593658042765</v>
+        <v>1.138669712214117</v>
       </c>
       <c r="G4">
-        <v>0.3399144645784204</v>
+        <v>0.5818350965712824</v>
       </c>
       <c r="H4">
-        <v>0.2872928072424585</v>
+        <v>0.7129337282613974</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06955347136795709</v>
+        <v>0.1635487134297016</v>
       </c>
       <c r="K4">
-        <v>1.993343404387048</v>
+        <v>0.7026094560067122</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4859892832196593</v>
+        <v>0.2920686415131044</v>
       </c>
       <c r="N4">
-        <v>0.8505179190135266</v>
+        <v>1.24670741484465</v>
       </c>
       <c r="O4">
-        <v>1.270934727896986</v>
+        <v>2.5681119032932</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1073619633034184</v>
+        <v>0.0389010916379533</v>
       </c>
       <c r="D5">
-        <v>0.1142596009484151</v>
+        <v>0.207640586783512</v>
       </c>
       <c r="E5">
-        <v>0.07471955976140165</v>
+        <v>0.1593134783093397</v>
       </c>
       <c r="F5">
-        <v>0.5670982002846472</v>
+        <v>1.139372890554952</v>
       </c>
       <c r="G5">
-        <v>0.3345118138515701</v>
+        <v>0.5820668523953145</v>
       </c>
       <c r="H5">
-        <v>0.2863572579495326</v>
+        <v>0.7141570608653041</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06915386678821278</v>
+        <v>0.1637937841025483</v>
       </c>
       <c r="K5">
-        <v>1.911975983254678</v>
+        <v>0.6773980249175793</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4663989489841356</v>
+        <v>0.2865024727229155</v>
       </c>
       <c r="N5">
-        <v>0.8519659911325945</v>
+        <v>1.24803862696966</v>
       </c>
       <c r="O5">
-        <v>1.257419530157094</v>
+        <v>2.571084634890596</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1065783866263672</v>
+        <v>0.03867489453013206</v>
       </c>
       <c r="D6">
-        <v>0.1138066667949573</v>
+        <v>0.2075651327068684</v>
       </c>
       <c r="E6">
-        <v>0.07454056193975944</v>
+        <v>0.1593144042806536</v>
       </c>
       <c r="F6">
-        <v>0.5658764280853745</v>
+        <v>1.139499654666864</v>
       </c>
       <c r="G6">
-        <v>0.333627369346182</v>
+        <v>0.582111773125483</v>
       </c>
       <c r="H6">
-        <v>0.2862099992359717</v>
+        <v>0.7143653294855881</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06908947000150434</v>
+        <v>0.163835706734794</v>
       </c>
       <c r="K6">
-        <v>1.898462666818688</v>
+        <v>0.6732103169473191</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4631475740441715</v>
+        <v>0.2855793473871557</v>
       </c>
       <c r="N6">
-        <v>0.8522194040567967</v>
+        <v>1.248266376941977</v>
       </c>
       <c r="O6">
-        <v>1.255218957758089</v>
+        <v>2.571602494992646</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1120233050732793</v>
+        <v>0.04024613230045304</v>
       </c>
       <c r="D7">
-        <v>0.1169591449727676</v>
+        <v>0.208095698424728</v>
       </c>
       <c r="E7">
-        <v>0.07579212527244295</v>
+        <v>0.1593142399171334</v>
       </c>
       <c r="F7">
-        <v>0.5744575824202371</v>
+        <v>1.138678525022101</v>
       </c>
       <c r="G7">
-        <v>0.3398407453814229</v>
+        <v>0.5818377904484677</v>
       </c>
       <c r="H7">
-        <v>0.2872796441005079</v>
+        <v>0.7129498823197764</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06954795000052272</v>
+        <v>0.1635519361617668</v>
       </c>
       <c r="K7">
-        <v>1.992246198597485</v>
+        <v>0.7022695387294959</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4857249709926634</v>
+        <v>0.2919934985312551</v>
       </c>
       <c r="N7">
-        <v>0.8505365751289418</v>
+        <v>1.246724918817932</v>
       </c>
       <c r="O7">
-        <v>1.270749507700188</v>
+        <v>2.568150369431962</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1362194063582507</v>
+        <v>0.04720885755345705</v>
       </c>
       <c r="D8">
-        <v>0.1310930614699402</v>
+        <v>0.2106054667065109</v>
       </c>
       <c r="E8">
-        <v>0.08154946203028146</v>
+        <v>0.1594682961583338</v>
       </c>
       <c r="F8">
-        <v>0.6149263438823738</v>
+        <v>1.136508801601835</v>
       </c>
       <c r="G8">
-        <v>0.3691918960985419</v>
+        <v>0.5815654129867909</v>
       </c>
       <c r="H8">
-        <v>0.2932170253787234</v>
+        <v>0.707450034506067</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07186612358710676</v>
+        <v>0.1624783089180859</v>
       </c>
       <c r="K8">
-        <v>2.405886438954667</v>
+        <v>0.8302904899790349</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5856275780750124</v>
+        <v>0.3204596550744796</v>
       </c>
       <c r="N8">
-        <v>0.8450408808876162</v>
+        <v>1.240895512504252</v>
       </c>
       <c r="O8">
-        <v>1.345905359005314</v>
+        <v>2.556441799026373</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1844744196337587</v>
+        <v>0.06096764052433912</v>
       </c>
       <c r="D9">
-        <v>0.1597075855134165</v>
+        <v>0.2161278133751239</v>
       </c>
       <c r="E9">
-        <v>0.09377155537092463</v>
+        <v>0.1603250457015619</v>
       </c>
       <c r="F9">
-        <v>0.7047586052745842</v>
+        <v>1.137479584404296</v>
       </c>
       <c r="G9">
-        <v>0.4346438070931242</v>
+        <v>0.5844070579747864</v>
       </c>
       <c r="H9">
-        <v>0.3096610105069999</v>
+        <v>0.6993451416145149</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07757981960672566</v>
+        <v>0.1610146510754724</v>
       </c>
       <c r="K9">
-        <v>3.217701075810908</v>
+        <v>1.080479062652046</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.782975126323457</v>
+        <v>0.3768406485836451</v>
       </c>
       <c r="N9">
-        <v>0.8416782352332746</v>
+        <v>1.232945532381152</v>
       </c>
       <c r="O9">
-        <v>1.519990260988749</v>
+        <v>2.546167039883983</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2206229197373375</v>
+        <v>0.07114145898752611</v>
       </c>
       <c r="D10">
-        <v>0.1813786708273284</v>
+        <v>0.2205476823900909</v>
       </c>
       <c r="E10">
-        <v>0.1034097949538015</v>
+        <v>0.1612914883812699</v>
       </c>
       <c r="F10">
-        <v>0.7782749745544209</v>
+        <v>1.141381807449534</v>
       </c>
       <c r="G10">
-        <v>0.4884993575236223</v>
+        <v>0.5885631703571761</v>
       </c>
       <c r="H10">
-        <v>0.3250982253952799</v>
+        <v>0.6950235434982233</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08259774961572219</v>
+        <v>0.1603305619878483</v>
       </c>
       <c r="K10">
-        <v>3.816065914778108</v>
+        <v>1.263700098983065</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9293250200500935</v>
+        <v>0.4185894348586388</v>
       </c>
       <c r="N10">
-        <v>0.8442106050289055</v>
+        <v>1.229215417688224</v>
       </c>
       <c r="O10">
-        <v>1.667095115754137</v>
+        <v>2.546372296374017</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.237267067793212</v>
+        <v>0.07578428672964321</v>
       </c>
       <c r="D11">
-        <v>0.1914019753970422</v>
+        <v>0.2226364061781823</v>
       </c>
       <c r="E11">
-        <v>0.1079588905532134</v>
+        <v>0.1618040991606335</v>
       </c>
       <c r="F11">
-        <v>0.8136195913730546</v>
+        <v>1.143850339087507</v>
       </c>
       <c r="G11">
-        <v>0.5144783996615843</v>
+        <v>0.5909053248683591</v>
       </c>
       <c r="H11">
-        <v>0.332951412191818</v>
+        <v>0.6934119935999234</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08508417609319707</v>
+        <v>0.1601043334257852</v>
       </c>
       <c r="K11">
-        <v>4.089063772807719</v>
+        <v>1.346910074925518</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9963142205978031</v>
+        <v>0.4376498181243491</v>
       </c>
       <c r="N11">
-        <v>0.8465637597116569</v>
+        <v>1.227974513055358</v>
       </c>
       <c r="O11">
-        <v>1.738879945423122</v>
+        <v>2.548154084279389</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2436027622030963</v>
+        <v>0.07754452140105172</v>
       </c>
       <c r="D12">
-        <v>0.1952233495373434</v>
+        <v>0.2234385091844757</v>
       </c>
       <c r="E12">
-        <v>0.1097070718663211</v>
+        <v>0.1620086807810246</v>
       </c>
       <c r="F12">
-        <v>0.8273009533005791</v>
+        <v>1.144884845882515</v>
       </c>
       <c r="G12">
-        <v>0.5245489485960775</v>
+        <v>0.5918573249050638</v>
       </c>
       <c r="H12">
-        <v>0.336053746586785</v>
+        <v>0.6928526815674161</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08605729340950319</v>
+        <v>0.1600308844255451</v>
       </c>
       <c r="K12">
-        <v>4.192587833348</v>
+        <v>1.378398136049896</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.021750921781276</v>
+        <v>0.4448770188655686</v>
       </c>
       <c r="N12">
-        <v>0.8476378297081766</v>
+        <v>1.227569984542455</v>
       </c>
       <c r="O12">
-        <v>1.766824492793916</v>
+        <v>2.549071901377346</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2422367239445578</v>
+        <v>0.07716533042130891</v>
       </c>
       <c r="D13">
-        <v>0.1943991683897508</v>
+        <v>0.2232652674250915</v>
       </c>
       <c r="E13">
-        <v>0.109329402915872</v>
+        <v>0.1619641553603905</v>
       </c>
       <c r="F13">
-        <v>0.8243408185471566</v>
+        <v>1.144657610643407</v>
       </c>
       <c r="G13">
-        <v>0.5223693857970488</v>
+        <v>0.5916493979863588</v>
       </c>
       <c r="H13">
-        <v>0.3353797374513192</v>
+        <v>0.6929708737096121</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08584627381939924</v>
+        <v>0.1600461595346587</v>
       </c>
       <c r="K13">
-        <v>4.170285076927655</v>
+        <v>1.371617615944047</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.016269424473855</v>
+        <v>0.4433200984616334</v>
       </c>
       <c r="N13">
-        <v>0.8473982007860599</v>
+        <v>1.227654202371355</v>
       </c>
       <c r="O13">
-        <v>1.760771256771704</v>
+        <v>2.548863416672333</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2377876246996493</v>
+        <v>0.07592906038365754</v>
       </c>
       <c r="D14">
-        <v>0.191715833601549</v>
+        <v>0.2227021727116352</v>
       </c>
       <c r="E14">
-        <v>0.1081021915429012</v>
+        <v>0.1618207205881639</v>
       </c>
       <c r="F14">
-        <v>0.8147390691894287</v>
+        <v>1.143933449794417</v>
       </c>
       <c r="G14">
-        <v>0.5153021234382464</v>
+        <v>0.5909823413951187</v>
       </c>
       <c r="H14">
-        <v>0.3332040136860002</v>
+        <v>0.6933649576704397</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08516358899817789</v>
+        <v>0.1600980458444781</v>
       </c>
       <c r="K14">
-        <v>4.097577654061411</v>
+        <v>1.349501063333946</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9984054645995286</v>
+        <v>0.4382442173724286</v>
       </c>
       <c r="N14">
-        <v>0.8466483957103321</v>
+        <v>1.227939923099527</v>
       </c>
       <c r="O14">
-        <v>1.741163337782268</v>
+        <v>2.548224719992845</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2350668377015097</v>
+        <v>0.07517208177227985</v>
       </c>
       <c r="D15">
-        <v>0.1900756318567716</v>
+        <v>0.2223587103756302</v>
       </c>
       <c r="E15">
-        <v>0.1073538723687548</v>
+        <v>0.1617342249910045</v>
       </c>
       <c r="F15">
-        <v>0.8088971443332724</v>
+        <v>1.143502868357885</v>
       </c>
       <c r="G15">
-        <v>0.5110041632661222</v>
+        <v>0.5905822293184997</v>
       </c>
       <c r="H15">
-        <v>0.3318883340086245</v>
+        <v>0.6936129799584734</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08474960482003979</v>
+        <v>0.1601314189822318</v>
       </c>
       <c r="K15">
-        <v>4.053062189915011</v>
+        <v>1.335951147954745</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9874726084229124</v>
+        <v>0.4351363113596847</v>
       </c>
       <c r="N15">
-        <v>0.8462132639942013</v>
+        <v>1.228123443550956</v>
       </c>
       <c r="O15">
-        <v>1.729253946108656</v>
+        <v>2.547865166554232</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2195395592891316</v>
+        <v>0.07083833366752401</v>
       </c>
       <c r="D16">
-        <v>0.1807271159452881</v>
+        <v>0.2204127439597841</v>
       </c>
       <c r="E16">
-        <v>0.1031159700752973</v>
+        <v>0.1612594541953634</v>
       </c>
       <c r="F16">
-        <v>0.7760053740073261</v>
+        <v>1.141234437517895</v>
       </c>
       <c r="G16">
-        <v>0.4868330277712261</v>
+        <v>0.5884192035339595</v>
       </c>
       <c r="H16">
-        <v>0.3246024767715028</v>
+        <v>0.6951359919338103</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08243954575910806</v>
+        <v>0.1603470563697371</v>
       </c>
       <c r="K16">
-        <v>3.798243515422541</v>
+        <v>1.258259189865498</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9249562702477903</v>
+        <v>0.4173451391065086</v>
       </c>
       <c r="N16">
-        <v>0.8440818526996594</v>
+        <v>1.229305672196134</v>
       </c>
       <c r="O16">
-        <v>1.662506885374796</v>
+        <v>2.546289853336447</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2100681764958807</v>
+        <v>0.0681834735326845</v>
       </c>
       <c r="D17">
-        <v>0.1750357766390778</v>
+        <v>0.219238901973057</v>
       </c>
       <c r="E17">
-        <v>0.1005596056418163</v>
+        <v>0.1609868687779219</v>
       </c>
       <c r="F17">
-        <v>0.7563307432105546</v>
+        <v>1.140020436310635</v>
       </c>
       <c r="G17">
-        <v>0.4723976930138036</v>
+        <v>0.5872080084655806</v>
       </c>
       <c r="H17">
-        <v>0.3203518523670539</v>
+        <v>0.6961610647309442</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08107614729524926</v>
+        <v>0.1605011055118979</v>
       </c>
       <c r="K17">
-        <v>3.642146257346383</v>
+        <v>1.210560957416078</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8867172934935681</v>
+        <v>0.4064481120323862</v>
       </c>
       <c r="N17">
-        <v>0.8430890345765221</v>
+        <v>1.230147573069701</v>
       </c>
       <c r="O17">
-        <v>1.622848479781112</v>
+        <v>2.5457561081476</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2046390493856052</v>
+        <v>0.06665785359740539</v>
       </c>
       <c r="D18">
-        <v>0.1717776714447297</v>
+        <v>0.2185710954819768</v>
       </c>
       <c r="E18">
-        <v>0.09910462776585405</v>
+        <v>0.1608369548100868</v>
       </c>
       <c r="F18">
-        <v>0.7451919004328573</v>
+        <v>1.139387439093369</v>
       </c>
       <c r="G18">
-        <v>0.4642328860789178</v>
+        <v>0.5865538512806978</v>
       </c>
       <c r="H18">
-        <v>0.3179846201309857</v>
+        <v>0.6967840147911488</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08031098993546948</v>
+        <v>0.1605977079605765</v>
       </c>
       <c r="K18">
-        <v>3.552436430469186</v>
+        <v>1.183113300409502</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.864761572729762</v>
+        <v>0.400186917383877</v>
       </c>
       <c r="N18">
-        <v>0.8426303981415231</v>
+        <v>1.230674738674324</v>
       </c>
       <c r="O18">
-        <v>1.600492116023901</v>
+        <v>2.545608015890252</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2028039060434423</v>
+        <v>0.06614154338856792</v>
       </c>
       <c r="D19">
-        <v>0.1706771185503158</v>
+        <v>0.2183462536576002</v>
       </c>
       <c r="E19">
-        <v>0.09861458307140936</v>
+        <v>0.1607873772331061</v>
       </c>
       <c r="F19">
-        <v>0.7414502672235841</v>
+        <v>1.139184325711781</v>
       </c>
       <c r="G19">
-        <v>0.461491538176162</v>
+        <v>0.5863396580624567</v>
       </c>
       <c r="H19">
-        <v>0.3171961805949053</v>
+        <v>0.6970006641082449</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08005512324319142</v>
+        <v>0.1606317894391012</v>
       </c>
       <c r="K19">
-        <v>3.522073894360801</v>
+        <v>1.173817837907961</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8573340381653978</v>
+        <v>0.3980681115735152</v>
       </c>
       <c r="N19">
-        <v>0.8424941160506023</v>
+        <v>1.230860606401521</v>
       </c>
       <c r="O19">
-        <v>1.592998822478307</v>
+        <v>2.545585157093143</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2110744710606411</v>
+        <v>0.06846594467280909</v>
       </c>
       <c r="D20">
-        <v>0.1756400209840621</v>
+        <v>0.2193630986977695</v>
       </c>
       <c r="E20">
-        <v>0.1008301305758081</v>
+        <v>0.1610151751357094</v>
       </c>
       <c r="F20">
-        <v>0.7584066058662984</v>
+        <v>1.140142914075653</v>
       </c>
       <c r="G20">
-        <v>0.4739199340276912</v>
+        <v>0.5873325435885022</v>
       </c>
       <c r="H20">
-        <v>0.3207962422040538</v>
+        <v>0.696048491909778</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08121929758534208</v>
+        <v>0.1604838790061081</v>
       </c>
       <c r="K20">
-        <v>3.658755286688518</v>
+        <v>1.215639863922036</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8907838622756898</v>
+        <v>0.4076074508535257</v>
       </c>
       <c r="N20">
-        <v>0.8431830159936311</v>
+        <v>1.230053509937804</v>
       </c>
       <c r="O20">
-        <v>1.627022754947518</v>
+        <v>2.545796478092257</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2390935051566458</v>
+        <v>0.07629212610903835</v>
       </c>
       <c r="D21">
-        <v>0.1925032778759999</v>
+        <v>0.2228672653649824</v>
       </c>
       <c r="E21">
-        <v>0.1084619447043664</v>
+        <v>0.1618625669935199</v>
       </c>
       <c r="F21">
-        <v>0.8175510753103765</v>
+        <v>1.14414344667189</v>
       </c>
       <c r="G21">
-        <v>0.5173714636855209</v>
+        <v>0.5911765047331698</v>
       </c>
       <c r="H21">
-        <v>0.3338395137775194</v>
+        <v>0.6932478230569927</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08536323471987828</v>
+        <v>0.1600824739560309</v>
       </c>
       <c r="K21">
-        <v>4.118929374271261</v>
+        <v>1.355997836215522</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.003650578629639</v>
+        <v>0.439734873675512</v>
       </c>
       <c r="N21">
-        <v>0.8468635804626956</v>
+        <v>1.227854227212973</v>
       </c>
       <c r="O21">
-        <v>1.746901489756709</v>
+        <v>2.548405720841686</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.257599558451318</v>
+        <v>0.08141919957481036</v>
       </c>
       <c r="D22">
-        <v>0.2036756213442885</v>
+        <v>0.2252223854072355</v>
       </c>
       <c r="E22">
-        <v>0.1135995848139935</v>
+        <v>0.1624773843548688</v>
       </c>
       <c r="F22">
-        <v>0.857949423186767</v>
+        <v>1.147339321756306</v>
       </c>
       <c r="G22">
-        <v>0.5471370822454276</v>
+        <v>0.5940681421757148</v>
       </c>
       <c r="H22">
-        <v>0.3431177136601917</v>
+        <v>0.6917143769638159</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08825666304809943</v>
+        <v>0.1598913536427844</v>
       </c>
       <c r="K22">
-        <v>4.420545105865187</v>
+        <v>1.447602235063357</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.077824802475796</v>
+        <v>0.4607868708698319</v>
       </c>
       <c r="N22">
-        <v>0.8503408529351049</v>
+        <v>1.226797841185459</v>
       </c>
       <c r="O22">
-        <v>1.829717576635545</v>
+        <v>2.551528079678405</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2477033329866458</v>
+        <v>0.07868167281320382</v>
       </c>
       <c r="D23">
-        <v>0.1976981847882087</v>
+        <v>0.2239594983309559</v>
       </c>
       <c r="E23">
-        <v>0.1108431729262236</v>
+        <v>0.1621436720935385</v>
       </c>
       <c r="F23">
-        <v>0.8362202420026534</v>
+        <v>1.145580428569446</v>
       </c>
       <c r="G23">
-        <v>0.5311184964614739</v>
+        <v>0.592490057988158</v>
       </c>
       <c r="H23">
-        <v>0.3380936494576616</v>
+        <v>0.6925056382643362</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08669465913049379</v>
+        <v>0.1599868411930743</v>
       </c>
       <c r="K23">
-        <v>4.25947708387838</v>
+        <v>1.398723543168785</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.038195728414863</v>
+        <v>0.4495461434219337</v>
       </c>
       <c r="N23">
-        <v>0.8483833284410309</v>
+        <v>1.227326856365394</v>
       </c>
       <c r="O23">
-        <v>1.785086794698572</v>
+        <v>2.549731857566229</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2106194754600494</v>
+        <v>0.06833823730659105</v>
       </c>
       <c r="D24">
-        <v>0.1753667989054435</v>
+        <v>0.21930692739015</v>
       </c>
       <c r="E24">
-        <v>0.1007077805742114</v>
+        <v>0.1610023566514549</v>
       </c>
       <c r="F24">
-        <v>0.7574675732533791</v>
+        <v>1.140087339569874</v>
       </c>
       <c r="G24">
-        <v>0.4732313121771341</v>
+        <v>0.5872761098981272</v>
       </c>
       <c r="H24">
-        <v>0.3205950959290931</v>
+        <v>0.696099281349376</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08115452132898326</v>
+        <v>0.1604916420734597</v>
       </c>
       <c r="K24">
-        <v>3.651246245388279</v>
+        <v>1.213343768978859</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8889452788772232</v>
+        <v>0.4070833023669209</v>
       </c>
       <c r="N24">
-        <v>0.8431401784468733</v>
+        <v>1.23009590146853</v>
       </c>
       <c r="O24">
-        <v>1.625134187460645</v>
+        <v>2.545777732318186</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1713134940486327</v>
+        <v>0.05723415933863407</v>
       </c>
       <c r="D25">
-        <v>0.1518604469565474</v>
+        <v>0.2145699359224267</v>
       </c>
       <c r="E25">
-        <v>0.09035635828620769</v>
+        <v>0.1600340112321454</v>
       </c>
       <c r="F25">
-        <v>0.6792226624881437</v>
+        <v>1.136657179116739</v>
       </c>
       <c r="G25">
-        <v>0.4159970717024919</v>
+        <v>0.5832758395711011</v>
       </c>
       <c r="H25">
-        <v>0.3046558151585828</v>
+        <v>0.7012508811415472</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07589831882747333</v>
+        <v>0.1613419034480401</v>
       </c>
       <c r="K25">
-        <v>2.997862218973381</v>
+        <v>1.012895568430537</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7293856156342287</v>
+        <v>0.3615298178363489</v>
       </c>
       <c r="N25">
-        <v>0.8417461984877832</v>
+        <v>1.234724724049983</v>
       </c>
       <c r="O25">
-        <v>1.469745639618026</v>
+        <v>2.54758640848803</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_232/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_232/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04910245743407415</v>
+        <v>0.1428227681243612</v>
       </c>
       <c r="D2">
-        <v>0.2113262746227349</v>
+        <v>0.1349798897549164</v>
       </c>
       <c r="E2">
-        <v>0.1595476154847084</v>
+        <v>0.08316930712753035</v>
       </c>
       <c r="F2">
-        <v>1.136274430731824</v>
+        <v>0.6265604678610117</v>
       </c>
       <c r="G2">
-        <v>0.5817196776665838</v>
+        <v>0.3776453862840015</v>
       </c>
       <c r="H2">
-        <v>0.706141273095227</v>
+        <v>0.2951356344967735</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1622308361142473</v>
+        <v>0.07256946821954813</v>
       </c>
       <c r="K2">
-        <v>0.8649220999769796</v>
+        <v>2.517954892186054</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3282109482808124</v>
+        <v>0.6127768187322218</v>
       </c>
       <c r="N2">
-        <v>1.239552088878582</v>
+        <v>0.8440367554623833</v>
       </c>
       <c r="O2">
-        <v>2.55412709350486</v>
+        <v>1.36797365537376</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04361850648034249</v>
+        <v>0.1237273765998737</v>
       </c>
       <c r="D3">
-        <v>0.209281435819598</v>
+        <v>0.1237726988699563</v>
       </c>
       <c r="E3">
-        <v>0.1593596804087376</v>
+        <v>0.07853972920659658</v>
       </c>
       <c r="F3">
-        <v>1.137350513017296</v>
+        <v>0.593583905415251</v>
       </c>
       <c r="G3">
-        <v>0.5815280987123401</v>
+        <v>0.3537023580301479</v>
       </c>
       <c r="H3">
-        <v>0.7101403478310289</v>
+        <v>0.2899242719015973</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1629972472390051</v>
+        <v>0.07061538133990553</v>
       </c>
       <c r="K3">
-        <v>0.7644190754145939</v>
+        <v>2.192942022534879</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3057732320252811</v>
+        <v>0.5341344590463351</v>
       </c>
       <c r="N3">
-        <v>1.243712767974998</v>
+        <v>0.8474988914057207</v>
       </c>
       <c r="O3">
-        <v>2.561802122388627</v>
+        <v>1.305920324338842</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04026453365024452</v>
+        <v>0.1120871006390445</v>
       </c>
       <c r="D4">
-        <v>0.2081019991133246</v>
+        <v>0.1169961502760586</v>
       </c>
       <c r="E4">
-        <v>0.1593143227636631</v>
+        <v>0.0758068943599568</v>
       </c>
       <c r="F4">
-        <v>1.138669712214117</v>
+        <v>0.5745593658042623</v>
       </c>
       <c r="G4">
-        <v>0.5818350965712824</v>
+        <v>0.3399144645784276</v>
       </c>
       <c r="H4">
-        <v>0.7129337282613974</v>
+        <v>0.2872928072424585</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1635487134297016</v>
+        <v>0.06955347136790024</v>
       </c>
       <c r="K4">
-        <v>0.7026094560067122</v>
+        <v>1.993343404387161</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2920686415131044</v>
+        <v>0.4859892832196522</v>
       </c>
       <c r="N4">
-        <v>1.24670741484465</v>
+        <v>0.8505179190134697</v>
       </c>
       <c r="O4">
-        <v>2.5681119032932</v>
+        <v>1.270934727897028</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0389010916379533</v>
+        <v>0.1073619633034184</v>
       </c>
       <c r="D5">
-        <v>0.207640586783512</v>
+        <v>0.1142596009483725</v>
       </c>
       <c r="E5">
-        <v>0.1593134783093397</v>
+        <v>0.074719559761391</v>
       </c>
       <c r="F5">
-        <v>1.139372890554952</v>
+        <v>0.5670982002846472</v>
       </c>
       <c r="G5">
-        <v>0.5820668523953145</v>
+        <v>0.3345118138516199</v>
       </c>
       <c r="H5">
-        <v>0.7141570608653041</v>
+        <v>0.2863572579493976</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1637937841025483</v>
+        <v>0.06915386678822699</v>
       </c>
       <c r="K5">
-        <v>0.6773980249175793</v>
+        <v>1.911975983254791</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2865024727229155</v>
+        <v>0.4663989489841356</v>
       </c>
       <c r="N5">
-        <v>1.24803862696966</v>
+        <v>0.8519659911325235</v>
       </c>
       <c r="O5">
-        <v>2.571084634890596</v>
+        <v>1.25741953015708</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03867489453013206</v>
+        <v>0.1065783866266798</v>
       </c>
       <c r="D6">
-        <v>0.2075651327068684</v>
+        <v>0.1138066667949147</v>
       </c>
       <c r="E6">
-        <v>0.1593144042806536</v>
+        <v>0.07454056193975589</v>
       </c>
       <c r="F6">
-        <v>1.139499654666864</v>
+        <v>0.5658764280853603</v>
       </c>
       <c r="G6">
-        <v>0.582111773125483</v>
+        <v>0.3336273693461749</v>
       </c>
       <c r="H6">
-        <v>0.7143653294855881</v>
+        <v>0.2862099992359717</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.163835706734794</v>
+        <v>0.06908947000152921</v>
       </c>
       <c r="K6">
-        <v>0.6732103169473191</v>
+        <v>1.898462666818688</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2855793473871557</v>
+        <v>0.4631475740441573</v>
       </c>
       <c r="N6">
-        <v>1.248266376941977</v>
+        <v>0.8522194040567967</v>
       </c>
       <c r="O6">
-        <v>2.571602494992646</v>
+        <v>1.255218957758089</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04024613230045304</v>
+        <v>0.112023305073123</v>
       </c>
       <c r="D7">
-        <v>0.208095698424728</v>
+        <v>0.1169591449726539</v>
       </c>
       <c r="E7">
-        <v>0.1593142399171334</v>
+        <v>0.07579212527246781</v>
       </c>
       <c r="F7">
-        <v>1.138678525022101</v>
+        <v>0.5744575824202371</v>
       </c>
       <c r="G7">
-        <v>0.5818377904484677</v>
+        <v>0.3398407453813661</v>
       </c>
       <c r="H7">
-        <v>0.7129498823197764</v>
+        <v>0.2872796441005008</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1635519361617668</v>
+        <v>0.06954795000060798</v>
       </c>
       <c r="K7">
-        <v>0.7022695387294959</v>
+        <v>1.9922461985974</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2919934985312551</v>
+        <v>0.4857249709926634</v>
       </c>
       <c r="N7">
-        <v>1.246724918817932</v>
+        <v>0.8505365751289347</v>
       </c>
       <c r="O7">
-        <v>2.568150369431962</v>
+        <v>1.27074950770016</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04720885755345705</v>
+        <v>0.1362194063579096</v>
       </c>
       <c r="D8">
-        <v>0.2106054667065109</v>
+        <v>0.1310930614699259</v>
       </c>
       <c r="E8">
-        <v>0.1594682961583338</v>
+        <v>0.08154946203026725</v>
       </c>
       <c r="F8">
-        <v>1.136508801601835</v>
+        <v>0.6149263438823809</v>
       </c>
       <c r="G8">
-        <v>0.5815654129867909</v>
+        <v>0.3691918960985987</v>
       </c>
       <c r="H8">
-        <v>0.707450034506067</v>
+        <v>0.2932170253785955</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1624783089180859</v>
+        <v>0.07186612358716005</v>
       </c>
       <c r="K8">
-        <v>0.8302904899790349</v>
+        <v>2.40588643895461</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3204596550744796</v>
+        <v>0.5856275780750337</v>
       </c>
       <c r="N8">
-        <v>1.240895512504252</v>
+        <v>0.8450408808875594</v>
       </c>
       <c r="O8">
-        <v>2.556441799026373</v>
+        <v>1.345905359005343</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06096764052433912</v>
+        <v>0.1844744196337444</v>
       </c>
       <c r="D9">
-        <v>0.2161278133751239</v>
+        <v>0.1597075855132886</v>
       </c>
       <c r="E9">
-        <v>0.1603250457015619</v>
+        <v>0.09377155537096726</v>
       </c>
       <c r="F9">
-        <v>1.137479584404296</v>
+        <v>0.7047586052745842</v>
       </c>
       <c r="G9">
-        <v>0.5844070579747864</v>
+        <v>0.4346438070931526</v>
       </c>
       <c r="H9">
-        <v>0.6993451416145149</v>
+        <v>0.3096610105071136</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1610146510754724</v>
+        <v>0.07757981960688198</v>
       </c>
       <c r="K9">
-        <v>1.080479062652046</v>
+        <v>3.217701075810965</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3768406485836451</v>
+        <v>0.782975126323457</v>
       </c>
       <c r="N9">
-        <v>1.232945532381152</v>
+        <v>0.8416782352332746</v>
       </c>
       <c r="O9">
-        <v>2.546167039883983</v>
+        <v>1.519990260988664</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07114145898752611</v>
+        <v>0.2206229197373233</v>
       </c>
       <c r="D10">
-        <v>0.2205476823900909</v>
+        <v>0.1813786708273426</v>
       </c>
       <c r="E10">
-        <v>0.1612914883812699</v>
+        <v>0.1034097949538015</v>
       </c>
       <c r="F10">
-        <v>1.141381807449534</v>
+        <v>0.7782749745543924</v>
       </c>
       <c r="G10">
-        <v>0.5885631703571761</v>
+        <v>0.4884993575235939</v>
       </c>
       <c r="H10">
-        <v>0.6950235434982233</v>
+        <v>0.3250982253952799</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1603305619878483</v>
+        <v>0.08259774961567956</v>
       </c>
       <c r="K10">
-        <v>1.263700098983065</v>
+        <v>3.816065914778108</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4185894348586388</v>
+        <v>0.9293250200500864</v>
       </c>
       <c r="N10">
-        <v>1.229215417688224</v>
+        <v>0.8442106050288913</v>
       </c>
       <c r="O10">
-        <v>2.546372296374017</v>
+        <v>1.667095115754108</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07578428672964321</v>
+        <v>0.2372670677933399</v>
       </c>
       <c r="D11">
-        <v>0.2226364061781823</v>
+        <v>0.1914019753970422</v>
       </c>
       <c r="E11">
-        <v>0.1618040991606335</v>
+        <v>0.1079588905532276</v>
       </c>
       <c r="F11">
-        <v>1.143850339087507</v>
+        <v>0.8136195913730546</v>
       </c>
       <c r="G11">
-        <v>0.5909053248683591</v>
+        <v>0.5144783996616979</v>
       </c>
       <c r="H11">
-        <v>0.6934119935999234</v>
+        <v>0.3329514121918038</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1601043334257852</v>
+        <v>0.08508417609320418</v>
       </c>
       <c r="K11">
-        <v>1.346910074925518</v>
+        <v>4.089063772807663</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4376498181243491</v>
+        <v>0.9963142205978031</v>
       </c>
       <c r="N11">
-        <v>1.227974513055358</v>
+        <v>0.8465637597116427</v>
       </c>
       <c r="O11">
-        <v>2.548154084279389</v>
+        <v>1.738879945423093</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07754452140105172</v>
+        <v>0.2436027622030821</v>
       </c>
       <c r="D12">
-        <v>0.2234385091844757</v>
+        <v>0.1952233495371587</v>
       </c>
       <c r="E12">
-        <v>0.1620086807810246</v>
+        <v>0.1097070718663176</v>
       </c>
       <c r="F12">
-        <v>1.144884845882515</v>
+        <v>0.8273009533005933</v>
       </c>
       <c r="G12">
-        <v>0.5918573249050638</v>
+        <v>0.5245489485961201</v>
       </c>
       <c r="H12">
-        <v>0.6928526815674161</v>
+        <v>0.3360537465868845</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1600308844255451</v>
+        <v>0.08605729340963109</v>
       </c>
       <c r="K12">
-        <v>1.378398136049896</v>
+        <v>4.192587833347886</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4448770188655686</v>
+        <v>1.021750921781312</v>
       </c>
       <c r="N12">
-        <v>1.227569984542455</v>
+        <v>0.8476378297081482</v>
       </c>
       <c r="O12">
-        <v>2.549071901377346</v>
+        <v>1.766824492793887</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07716533042130891</v>
+        <v>0.2422367239443446</v>
       </c>
       <c r="D13">
-        <v>0.2232652674250915</v>
+        <v>0.1943991683896371</v>
       </c>
       <c r="E13">
-        <v>0.1619641553603905</v>
+        <v>0.109329402915872</v>
       </c>
       <c r="F13">
-        <v>1.144657610643407</v>
+        <v>0.8243408185471566</v>
       </c>
       <c r="G13">
-        <v>0.5916493979863588</v>
+        <v>0.5223693857970346</v>
       </c>
       <c r="H13">
-        <v>0.6929708737096121</v>
+        <v>0.3353797374513192</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1600461595346587</v>
+        <v>0.08584627381943477</v>
       </c>
       <c r="K13">
-        <v>1.371617615944047</v>
+        <v>4.170285076927485</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4433200984616334</v>
+        <v>1.016269424473855</v>
       </c>
       <c r="N13">
-        <v>1.227654202371355</v>
+        <v>0.8473982007860883</v>
       </c>
       <c r="O13">
-        <v>2.548863416672333</v>
+        <v>1.760771256771648</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07592906038365754</v>
+        <v>0.2377876246996635</v>
       </c>
       <c r="D14">
-        <v>0.2227021727116352</v>
+        <v>0.1917158336012506</v>
       </c>
       <c r="E14">
-        <v>0.1618207205881639</v>
+        <v>0.1081021915429012</v>
       </c>
       <c r="F14">
-        <v>1.143933449794417</v>
+        <v>0.8147390691894003</v>
       </c>
       <c r="G14">
-        <v>0.5909823413951187</v>
+        <v>0.5153021234382038</v>
       </c>
       <c r="H14">
-        <v>0.6933649576704397</v>
+        <v>0.333204013685986</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1600980458444781</v>
+        <v>0.08516358899813525</v>
       </c>
       <c r="K14">
-        <v>1.349501063333946</v>
+        <v>4.097577654061411</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4382442173724286</v>
+        <v>0.9984054645995499</v>
       </c>
       <c r="N14">
-        <v>1.227939923099527</v>
+        <v>0.8466483957103463</v>
       </c>
       <c r="O14">
-        <v>2.548224719992845</v>
+        <v>1.741163337782297</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07517208177227985</v>
+        <v>0.2350668377016376</v>
       </c>
       <c r="D15">
-        <v>0.2223587103756302</v>
+        <v>0.1900756318568853</v>
       </c>
       <c r="E15">
-        <v>0.1617342249910045</v>
+        <v>0.1073538723687406</v>
       </c>
       <c r="F15">
-        <v>1.143502868357885</v>
+        <v>0.8088971443332724</v>
       </c>
       <c r="G15">
-        <v>0.5905822293184997</v>
+        <v>0.5110041632661364</v>
       </c>
       <c r="H15">
-        <v>0.6936129799584734</v>
+        <v>0.3318883340086387</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1601314189822318</v>
+        <v>0.08474960482006821</v>
       </c>
       <c r="K15">
-        <v>1.335951147954745</v>
+        <v>4.053062189915124</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4351363113596847</v>
+        <v>0.9874726084229053</v>
       </c>
       <c r="N15">
-        <v>1.228123443550956</v>
+        <v>0.8462132639942581</v>
       </c>
       <c r="O15">
-        <v>2.547865166554232</v>
+        <v>1.729253946108656</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07083833366752401</v>
+        <v>0.2195395592890179</v>
       </c>
       <c r="D16">
-        <v>0.2204127439597841</v>
+        <v>0.1807271159449471</v>
       </c>
       <c r="E16">
-        <v>0.1612594541953634</v>
+        <v>0.1031159700752973</v>
       </c>
       <c r="F16">
-        <v>1.141234437517895</v>
+        <v>0.7760053740073403</v>
       </c>
       <c r="G16">
-        <v>0.5884192035339595</v>
+        <v>0.4868330277711692</v>
       </c>
       <c r="H16">
-        <v>0.6951359919338103</v>
+        <v>0.3246024767713891</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1603470563697371</v>
+        <v>0.08243954575908674</v>
       </c>
       <c r="K16">
-        <v>1.258259189865498</v>
+        <v>3.798243515422598</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4173451391065086</v>
+        <v>0.9249562702477832</v>
       </c>
       <c r="N16">
-        <v>1.229305672196134</v>
+        <v>0.8440818526996452</v>
       </c>
       <c r="O16">
-        <v>2.546289853336447</v>
+        <v>1.662506885374796</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0681834735326845</v>
+        <v>0.2100681764958949</v>
       </c>
       <c r="D17">
-        <v>0.219238901973057</v>
+        <v>0.1750357766391915</v>
       </c>
       <c r="E17">
-        <v>0.1609868687779219</v>
+        <v>0.1005596056418163</v>
       </c>
       <c r="F17">
-        <v>1.140020436310635</v>
+        <v>0.7563307432105688</v>
       </c>
       <c r="G17">
-        <v>0.5872080084655806</v>
+        <v>0.4723976930137468</v>
       </c>
       <c r="H17">
-        <v>0.6961610647309442</v>
+        <v>0.320351852366926</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1605011055118979</v>
+        <v>0.08107614729525636</v>
       </c>
       <c r="K17">
-        <v>1.210560957416078</v>
+        <v>3.642146257346496</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4064481120323862</v>
+        <v>0.8867172934935681</v>
       </c>
       <c r="N17">
-        <v>1.230147573069701</v>
+        <v>0.8430890345765221</v>
       </c>
       <c r="O17">
-        <v>2.5457561081476</v>
+        <v>1.622848479781084</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06665785359740539</v>
+        <v>0.2046390493854062</v>
       </c>
       <c r="D18">
-        <v>0.2185710954819768</v>
+        <v>0.1717776714448433</v>
       </c>
       <c r="E18">
-        <v>0.1608369548100868</v>
+        <v>0.09910462776583628</v>
       </c>
       <c r="F18">
-        <v>1.139387439093369</v>
+        <v>0.7451919004328573</v>
       </c>
       <c r="G18">
-        <v>0.5865538512806978</v>
+        <v>0.464232886078932</v>
       </c>
       <c r="H18">
-        <v>0.6967840147911488</v>
+        <v>0.317984620130872</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1605977079605765</v>
+        <v>0.08031098993550501</v>
       </c>
       <c r="K18">
-        <v>1.183113300409502</v>
+        <v>3.552436430469243</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.400186917383877</v>
+        <v>0.8647615727297477</v>
       </c>
       <c r="N18">
-        <v>1.230674738674324</v>
+        <v>0.8426303981414947</v>
       </c>
       <c r="O18">
-        <v>2.545608015890252</v>
+        <v>1.600492116023958</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06614154338856792</v>
+        <v>0.2028039060431865</v>
       </c>
       <c r="D19">
-        <v>0.2183462536576002</v>
+        <v>0.1706771185503015</v>
       </c>
       <c r="E19">
-        <v>0.1607873772331061</v>
+        <v>0.09861458307142712</v>
       </c>
       <c r="F19">
-        <v>1.139184325711781</v>
+        <v>0.7414502672235699</v>
       </c>
       <c r="G19">
-        <v>0.5863396580624567</v>
+        <v>0.4614915381762899</v>
       </c>
       <c r="H19">
-        <v>0.6970006641082449</v>
+        <v>0.3171961805949195</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1606317894391012</v>
+        <v>0.08005512324326247</v>
       </c>
       <c r="K19">
-        <v>1.173817837907961</v>
+        <v>3.522073894360858</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3980681115735152</v>
+        <v>0.8573340381653978</v>
       </c>
       <c r="N19">
-        <v>1.230860606401521</v>
+        <v>0.8424941160505455</v>
       </c>
       <c r="O19">
-        <v>2.545585157093143</v>
+        <v>1.592998822478307</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06846594467280909</v>
+        <v>0.2110744710605275</v>
       </c>
       <c r="D20">
-        <v>0.2193630986977695</v>
+        <v>0.1756400209841757</v>
       </c>
       <c r="E20">
-        <v>0.1610151751357094</v>
+        <v>0.1008301305758046</v>
       </c>
       <c r="F20">
-        <v>1.140142914075653</v>
+        <v>0.7584066058662842</v>
       </c>
       <c r="G20">
-        <v>0.5873325435885022</v>
+        <v>0.4739199340276485</v>
       </c>
       <c r="H20">
-        <v>0.696048491909778</v>
+        <v>0.3207962422041533</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1604838790061081</v>
+        <v>0.08121929758532076</v>
       </c>
       <c r="K20">
-        <v>1.215639863922036</v>
+        <v>3.658755286688518</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4076074508535257</v>
+        <v>0.8907838622756756</v>
       </c>
       <c r="N20">
-        <v>1.230053509937804</v>
+        <v>0.8431830159935743</v>
       </c>
       <c r="O20">
-        <v>2.545796478092257</v>
+        <v>1.62702275494749</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07629212610903835</v>
+        <v>0.2390935051565179</v>
       </c>
       <c r="D21">
-        <v>0.2228672653649824</v>
+        <v>0.1925032778759999</v>
       </c>
       <c r="E21">
-        <v>0.1618625669935199</v>
+        <v>0.1084619447043522</v>
       </c>
       <c r="F21">
-        <v>1.14414344667189</v>
+        <v>0.8175510753103481</v>
       </c>
       <c r="G21">
-        <v>0.5911765047331698</v>
+        <v>0.5173714636854925</v>
       </c>
       <c r="H21">
-        <v>0.6932478230569927</v>
+        <v>0.3338395137774057</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1600824739560309</v>
+        <v>0.08536323471984986</v>
       </c>
       <c r="K21">
-        <v>1.355997836215522</v>
+        <v>4.118929374271374</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.439734873675512</v>
+        <v>1.003650578629625</v>
       </c>
       <c r="N21">
-        <v>1.227854227212973</v>
+        <v>0.8468635804627382</v>
       </c>
       <c r="O21">
-        <v>2.548405720841686</v>
+        <v>1.746901489756738</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08141919957481036</v>
+        <v>0.2575995584511901</v>
       </c>
       <c r="D22">
-        <v>0.2252223854072355</v>
+        <v>0.2036756213443311</v>
       </c>
       <c r="E22">
-        <v>0.1624773843548688</v>
+        <v>0.1135995848140041</v>
       </c>
       <c r="F22">
-        <v>1.147339321756306</v>
+        <v>0.857949423186767</v>
       </c>
       <c r="G22">
-        <v>0.5940681421757148</v>
+        <v>0.5471370822453991</v>
       </c>
       <c r="H22">
-        <v>0.6917143769638159</v>
+        <v>0.3431177136600638</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1598913536427844</v>
+        <v>0.08825666304815627</v>
       </c>
       <c r="K22">
-        <v>1.447602235063357</v>
+        <v>4.420545105865415</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4607868708698319</v>
+        <v>1.077824802475824</v>
       </c>
       <c r="N22">
-        <v>1.226797841185459</v>
+        <v>0.8503408529351049</v>
       </c>
       <c r="O22">
-        <v>2.551528079678405</v>
+        <v>1.829717576635602</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07868167281320382</v>
+        <v>0.2477033329864042</v>
       </c>
       <c r="D23">
-        <v>0.2239594983309559</v>
+        <v>0.197698184788095</v>
       </c>
       <c r="E23">
-        <v>0.1621436720935385</v>
+        <v>0.1108431729262307</v>
       </c>
       <c r="F23">
-        <v>1.145580428569446</v>
+        <v>0.8362202420026534</v>
       </c>
       <c r="G23">
-        <v>0.592490057988158</v>
+        <v>0.5311184964614597</v>
       </c>
       <c r="H23">
-        <v>0.6925056382643362</v>
+        <v>0.3380936494576474</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1599868411930743</v>
+        <v>0.0866946591305009</v>
       </c>
       <c r="K23">
-        <v>1.398723543168785</v>
+        <v>4.259477083878494</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4495461434219337</v>
+        <v>1.038195728414856</v>
       </c>
       <c r="N23">
-        <v>1.227326856365394</v>
+        <v>0.8483833284409883</v>
       </c>
       <c r="O23">
-        <v>2.549731857566229</v>
+        <v>1.785086794698572</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06833823730659105</v>
+        <v>0.2106194754600779</v>
       </c>
       <c r="D24">
-        <v>0.21930692739015</v>
+        <v>0.1753667989054435</v>
       </c>
       <c r="E24">
-        <v>0.1610023566514549</v>
+        <v>0.1007077805742149</v>
       </c>
       <c r="F24">
-        <v>1.140087339569874</v>
+        <v>0.7574675732533791</v>
       </c>
       <c r="G24">
-        <v>0.5872761098981272</v>
+        <v>0.4732313121771057</v>
       </c>
       <c r="H24">
-        <v>0.696099281349376</v>
+        <v>0.3205950959290931</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1604916420734597</v>
+        <v>0.08115452132898326</v>
       </c>
       <c r="K24">
-        <v>1.213343768978859</v>
+        <v>3.651246245388336</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4070833023669209</v>
+        <v>0.8889452788772232</v>
       </c>
       <c r="N24">
-        <v>1.23009590146853</v>
+        <v>0.8431401784468733</v>
       </c>
       <c r="O24">
-        <v>2.545777732318186</v>
+        <v>1.625134187460674</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05723415933863407</v>
+        <v>0.1713134940485332</v>
       </c>
       <c r="D25">
-        <v>0.2145699359224267</v>
+        <v>0.1518604469566043</v>
       </c>
       <c r="E25">
-        <v>0.1600340112321454</v>
+        <v>0.09035635828623612</v>
       </c>
       <c r="F25">
-        <v>1.136657179116739</v>
+        <v>0.6792226624881437</v>
       </c>
       <c r="G25">
-        <v>0.5832758395711011</v>
+        <v>0.4159970717023782</v>
       </c>
       <c r="H25">
-        <v>0.7012508811415472</v>
+        <v>0.3046558151586964</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1613419034480401</v>
+        <v>0.07589831882755504</v>
       </c>
       <c r="K25">
-        <v>1.012895568430537</v>
+        <v>2.99786221897341</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3615298178363489</v>
+        <v>0.7293856156342287</v>
       </c>
       <c r="N25">
-        <v>1.234724724049983</v>
+        <v>0.841746198487769</v>
       </c>
       <c r="O25">
-        <v>2.54758640848803</v>
+        <v>1.469745639618083</v>
       </c>
     </row>
   </sheetData>
